--- a/src/test/resources/apiCase/apiCase.xlsx
+++ b/src/test/resources/apiCase/apiCase.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView activeTab="1" windowHeight="12540" windowWidth="28800"/>
   </bookViews>
   <sheets>
-    <sheet name="接口信息" sheetId="4" r:id="rId1"/>
-    <sheet name="用例信息" sheetId="3" r:id="rId2"/>
+    <sheet name="接口信息" r:id="rId1" sheetId="4"/>
+    <sheet name="用例信息" r:id="rId2" sheetId="3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>接口编号</t>
   </si>
@@ -159,6 +159,16 @@
   </si>
   <si>
     <t>{"reason":"错误的请求KEY!","result":null,"error_code":10001}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ "error_code" : 0 , "reason" : "success" , "result" : [ { "name" : "700字" , "id" : 14} , { "name" : "1200字以上" , "id" : 20} , { "name" : "1200字" , "id" : 19} , { "name" : "300字" , "id" : 6} , { "name" : "200字" , "id" : 4} , { "name" : "600字" , "id" : 12} , { "name" : "100字" , "id" : 2} , { "name" : "500字" , "id" : 10} , { "name" : "1000字" , "id" : 18} , { "name" : "800字" , "id" : 16} , { "name" : "400字" , "id" : 8}]}
+</t>
+  </si>
+  <si>
+    <t>[true, true]</t>
+  </si>
+  <si>
+    <t>[true]</t>
   </si>
 </sst>
 </file>
@@ -168,8 +178,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -626,217 +636,217 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="10" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="18" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="23" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="23" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="26" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
+    <cellStyle builtinId="20" name="输入" xfId="3"/>
+    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="27" name="差" xfId="7"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle builtinId="8" name="超链接" xfId="10"/>
+    <cellStyle builtinId="5" name="百分比" xfId="11"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
+    <cellStyle builtinId="10" name="注释" xfId="13"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
+    <cellStyle builtinId="15" name="标题" xfId="17"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
+    <cellStyle builtinId="21" name="输出" xfId="24"/>
+    <cellStyle builtinId="22" name="计算" xfId="25"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
+    <cellStyle builtinId="25" name="汇总" xfId="30"/>
+    <cellStyle builtinId="26" name="好" xfId="31"/>
+    <cellStyle builtinId="28" name="适中" xfId="32"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -850,10 +860,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1011,7 +1021,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1020,13 +1030,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1036,7 +1046,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1045,7 +1055,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1054,7 +1064,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1064,12 +1074,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1100,7 +1110,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1119,7 +1129,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1130,7 +1140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -1138,11 +1148,11 @@
       <selection activeCell="B5" sqref="B5:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4" outlineLevelRow="5"/>
   <cols>
-    <col min="2" max="2" width="17.5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="61.5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="61.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1242,13 +1252,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
   <dimension ref="A1:H12"/>
   <sheetViews>
@@ -1258,13 +1268,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9.25" customWidth="1"/>
-    <col min="2" max="2" width="25.25" customWidth="1"/>
-    <col min="3" max="3" width="91" style="1" customWidth="1"/>
-    <col min="5" max="5" width="54" customWidth="1"/>
-    <col min="6" max="6" width="38.5" customWidth="1"/>
-    <col min="7" max="7" width="25.25" customWidth="1"/>
-    <col min="8" max="8" width="13.375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="9.25" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="25.25" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="1" width="91.0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="54.0" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="38.5" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="25.25" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="13.375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1293,7 +1303,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1" spans="1:7">
+    <row customHeight="1" ht="18" r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1308,7 +1318,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:7">
+    <row customHeight="1" ht="18" r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1323,7 +1333,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" ht="18" customHeight="1" spans="1:7">
+    <row customHeight="1" ht="18" r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1338,7 +1348,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" ht="18" customHeight="1" spans="1:7">
+    <row customHeight="1" ht="18" r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1353,7 +1363,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" ht="18" customHeight="1" spans="1:7">
+    <row customHeight="1" ht="18" r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1368,7 +1378,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" ht="18" customHeight="1" spans="1:6">
+    <row customHeight="1" ht="18" r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1383,7 +1393,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" ht="18" customHeight="1" spans="1:6">
+    <row customHeight="1" ht="18" r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1398,7 +1408,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" ht="18" customHeight="1" spans="1:7">
+    <row customHeight="1" ht="18" r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1416,7 +1426,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" ht="18" customHeight="1" spans="1:6">
+    <row customHeight="1" ht="18" r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1431,7 +1441,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" ht="30" customHeight="1" spans="1:7">
+    <row customHeight="1" ht="30" r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1450,9 +1460,14 @@
       <c r="F11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" ht="40.5" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row ht="40.5" r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1471,11 +1486,16 @@
       <c r="F12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <headerFooter/>
 </worksheet>
 </file>